--- a/Civilworks cost/RADP Preparations/Netrakona/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Netrakona/Projecttion_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP Preparations\Netrakona\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Structure_Wise_payment" sheetId="6" r:id="rId6"/>
     <sheet name="DPP_Wise_payment" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -582,8 +587,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,10 +640,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,6 +654,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -692,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,9 +740,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,6 +775,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -933,14 +951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -977,7 +995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -997,7 +1015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1077,7 +1095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1097,7 +1115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1117,7 +1135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1177,7 +1195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1217,7 +1235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1237,7 +1255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1263,14 +1281,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1311,7 +1329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1325,7 +1343,7 @@
         <v>114</v>
       </c>
       <c r="E2">
-        <v>35.828</v>
+        <v>35.828000000000003</v>
       </c>
       <c r="F2">
         <v>1132.4847496803</v>
@@ -1355,7 +1373,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1399,7 +1417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1416,7 +1434,7 @@
         <v>7.37</v>
       </c>
       <c r="F4">
-        <v>68.31133959</v>
+        <v>68.311339590000003</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1443,7 +1461,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>114</v>
       </c>
       <c r="E5">
-        <v>5.896</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="F5">
         <v>107.2236656</v>
@@ -1487,7 +1505,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1501,7 +1519,7 @@
         <v>114</v>
       </c>
       <c r="E6">
-        <v>7.192</v>
+        <v>7.1920000000000002</v>
       </c>
       <c r="F6">
         <v>215.6843188464791</v>
@@ -1531,7 +1549,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1575,7 +1593,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1589,10 +1607,10 @@
         <v>114</v>
       </c>
       <c r="E8">
-        <v>5.057</v>
+        <v>5.0570000000000004</v>
       </c>
       <c r="F8">
-        <v>112.0191766</v>
+        <v>112.01917659999999</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1619,7 +1637,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1636,7 +1654,7 @@
         <v>5.4</v>
       </c>
       <c r="F9">
-        <v>57.68443476</v>
+        <v>57.684434760000002</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1663,7 +1681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1680,7 +1698,7 @@
         <v>1.903</v>
       </c>
       <c r="F10">
-        <v>48.57400181</v>
+        <v>48.574001809999999</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1707,7 +1725,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1724,7 +1742,7 @@
         <v>4.32</v>
       </c>
       <c r="F11">
-        <v>102.828932</v>
+        <v>102.82893199999999</v>
       </c>
       <c r="G11">
         <v>0.5</v>
@@ -1751,7 +1769,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>3.15</v>
       </c>
       <c r="F12">
-        <v>37.92627757</v>
+        <v>37.926277570000003</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1795,7 +1813,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1812,7 +1830,7 @@
         <v>2.98</v>
       </c>
       <c r="F13">
-        <v>91.95552287</v>
+        <v>91.955522869999996</v>
       </c>
       <c r="G13">
         <v>0.4</v>
@@ -1839,7 +1857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1883,7 +1901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1971,7 +1989,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>114</v>
       </c>
       <c r="E17">
-        <v>4.925</v>
+        <v>4.9249999999999998</v>
       </c>
       <c r="F17">
         <v>335.3397243</v>
@@ -2015,7 +2033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2029,10 +2047,10 @@
         <v>114</v>
       </c>
       <c r="E18">
-        <v>7.565</v>
+        <v>7.5650000000000004</v>
       </c>
       <c r="F18">
-        <v>158.0590027</v>
+        <v>158.05900270000001</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2059,7 +2077,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2076,7 +2094,7 @@
         <v>1.903</v>
       </c>
       <c r="F19">
-        <v>16.06356519</v>
+        <v>16.063565189999998</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2103,7 +2121,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2147,7 +2165,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2161,10 +2179,10 @@
         <v>114</v>
       </c>
       <c r="E21">
-        <v>5.235</v>
+        <v>5.2350000000000003</v>
       </c>
       <c r="F21">
-        <v>313.349542</v>
+        <v>313.34954199999999</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2191,7 +2209,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2235,7 +2253,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2249,7 +2267,7 @@
         <v>114</v>
       </c>
       <c r="E23">
-        <v>3.071</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="F23">
         <v>57.25</v>
@@ -2279,7 +2297,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2323,7 +2341,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2367,7 +2385,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2478,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I28" t="s">
         <v>123</v>
@@ -2499,7 +2517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2513,7 +2531,7 @@
         <v>114</v>
       </c>
       <c r="E29">
-        <v>1.933</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="F29">
         <v>118.7745324</v>
@@ -2543,7 +2561,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2560,7 +2578,7 @@
         <v>2.31</v>
       </c>
       <c r="F30">
-        <v>88.15154926</v>
+        <v>88.151549259999996</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2587,7 +2605,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2601,10 +2619,10 @@
         <v>114</v>
       </c>
       <c r="E31">
-        <v>1.178</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="F31">
-        <v>51.05747425</v>
+        <v>51.057474249999999</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2631,7 +2649,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2648,7 +2666,7 @@
         <v>0.35</v>
       </c>
       <c r="F32">
-        <v>28.03759306</v>
+        <v>28.037593059999999</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2675,7 +2693,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2763,7 +2781,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2780,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>16.92</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2807,7 +2825,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2868,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="F37">
-        <v>654.8026328</v>
+        <v>654.80263279999997</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2895,7 +2913,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2912,7 +2930,7 @@
         <v>9</v>
       </c>
       <c r="F38">
-        <v>238.874137</v>
+        <v>238.87413699999999</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2939,7 +2957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3159,7 +3177,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3203,7 +3221,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3247,7 +3265,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3291,7 +3309,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3385,14 +3403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
@@ -3403,7 +3421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3417,7 +3435,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3442,10 +3460,10 @@
         <v>141</v>
       </c>
       <c r="D4">
-        <v>625.9299999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>625.92999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3456,10 +3474,10 @@
         <v>142</v>
       </c>
       <c r="D5">
-        <v>714.6900000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>714.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3473,7 +3491,7 @@
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3487,7 +3505,7 @@
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3498,10 +3516,10 @@
         <v>145</v>
       </c>
       <c r="D8">
-        <v>565.0700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>565.07000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3515,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3529,7 +3547,7 @@
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3543,7 +3561,7 @@
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3557,7 +3575,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3571,7 +3589,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3582,10 +3600,10 @@
         <v>151</v>
       </c>
       <c r="D14">
-        <v>647.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>647.20000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3613,7 +3631,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3627,7 +3645,7 @@
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3641,7 +3659,7 @@
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3655,7 +3673,7 @@
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3669,7 +3687,7 @@
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3683,7 +3701,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3697,7 +3715,7 @@
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3711,7 +3729,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3725,7 +3743,7 @@
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3739,7 +3757,7 @@
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3753,7 +3771,7 @@
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3767,7 +3785,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3781,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3795,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3809,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3837,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3851,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3865,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3879,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3893,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3907,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3921,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3935,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3949,7 +3967,7 @@
         <v>817.97</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3963,7 +3981,7 @@
         <v>475.85</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3977,7 +3995,7 @@
         <v>712.73</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3991,7 +4009,7 @@
         <v>844.17</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4005,7 +4023,7 @@
         <v>635.34</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4019,7 +4037,7 @@
         <v>375.82</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4033,7 +4051,7 @@
         <v>567.71</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4053,14 +4071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -4098,7 +4116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4115,7 +4133,7 @@
         <v>114</v>
       </c>
       <c r="F2">
-        <v>35.828</v>
+        <v>35.828000000000003</v>
       </c>
       <c r="G2">
         <v>1132.4847496803</v>
@@ -4127,19 +4145,19 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>962.612037228255</v>
+        <v>962.61203722825496</v>
       </c>
       <c r="K2">
         <v>1132.4847496803</v>
       </c>
       <c r="L2">
-        <v>169.872712452045</v>
+        <v>169.87271245204499</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4168,19 +4186,19 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>180.931</v>
+        <v>180.93100000000001</v>
       </c>
       <c r="K3">
         <v>212.86</v>
       </c>
       <c r="L3">
-        <v>31.929</v>
+        <v>31.928999999999998</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4200,7 +4218,7 @@
         <v>7.37</v>
       </c>
       <c r="G4">
-        <v>68.31133959</v>
+        <v>68.311339590000003</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -4212,16 +4230,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>68.31133959</v>
+        <v>68.311339590000003</v>
       </c>
       <c r="L4">
-        <v>68.31133959</v>
+        <v>68.311339590000003</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4238,7 +4256,7 @@
         <v>114</v>
       </c>
       <c r="F5">
-        <v>5.896</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="G5">
         <v>107.2236656</v>
@@ -4250,19 +4268,19 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>24.661443088</v>
+        <v>24.661443087999999</v>
       </c>
       <c r="K5">
         <v>107.2236656</v>
       </c>
       <c r="L5">
-        <v>82.56222251200001</v>
+        <v>82.562222512000005</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4279,7 +4297,7 @@
         <v>114</v>
       </c>
       <c r="F6">
-        <v>7.192</v>
+        <v>7.1920000000000002</v>
       </c>
       <c r="G6">
         <v>215.6843188464791</v>
@@ -4303,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4344,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4361,10 +4379,10 @@
         <v>114</v>
       </c>
       <c r="F8">
-        <v>5.057</v>
+        <v>5.0570000000000004</v>
       </c>
       <c r="G8">
-        <v>112.0191766</v>
+        <v>112.01917659999999</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4373,10 +4391,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>112.0191766</v>
+        <v>112.01917659999999</v>
       </c>
       <c r="K8">
-        <v>112.0191766</v>
+        <v>112.01917659999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4385,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4405,7 +4423,7 @@
         <v>5.4</v>
       </c>
       <c r="G9">
-        <v>57.68443476</v>
+        <v>57.684434760000002</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4414,10 +4432,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>57.68443476</v>
+        <v>57.684434760000002</v>
       </c>
       <c r="K9">
-        <v>57.68443476</v>
+        <v>57.684434760000002</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4426,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4446,7 +4464,7 @@
         <v>1.903</v>
       </c>
       <c r="G10">
-        <v>48.57400181</v>
+        <v>48.574001809999999</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -4455,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>48.57400181</v>
+        <v>48.574001809999999</v>
       </c>
       <c r="K10">
-        <v>48.57400181</v>
+        <v>48.574001809999999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4467,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4487,7 +4505,7 @@
         <v>4.32</v>
       </c>
       <c r="G11">
-        <v>102.828932</v>
+        <v>102.82893199999999</v>
       </c>
       <c r="H11">
         <v>0.5</v>
@@ -4496,19 +4514,19 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>51.414466</v>
+        <v>51.414465999999997</v>
       </c>
       <c r="K11">
-        <v>102.828932</v>
+        <v>102.82893199999999</v>
       </c>
       <c r="L11">
-        <v>51.414466</v>
+        <v>51.414465999999997</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4528,7 +4546,7 @@
         <v>3.15</v>
       </c>
       <c r="G12">
-        <v>37.92627757</v>
+        <v>37.926277570000003</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4549,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4569,7 +4587,7 @@
         <v>2.98</v>
       </c>
       <c r="G13">
-        <v>91.95552287</v>
+        <v>91.955522869999996</v>
       </c>
       <c r="H13">
         <v>0.4</v>
@@ -4581,16 +4599,16 @@
         <v>36.782209148</v>
       </c>
       <c r="K13">
-        <v>91.95552287</v>
+        <v>91.955522869999996</v>
       </c>
       <c r="L13">
-        <v>55.173313722</v>
+        <v>55.173313722000003</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4631,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4672,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4713,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4730,7 +4748,7 @@
         <v>114</v>
       </c>
       <c r="F17">
-        <v>4.925</v>
+        <v>4.9249999999999998</v>
       </c>
       <c r="G17">
         <v>335.3397243</v>
@@ -4742,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>261.564984954</v>
+        <v>261.56498495400001</v>
       </c>
       <c r="K17">
         <v>335.3397243</v>
@@ -4754,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4771,10 +4789,10 @@
         <v>114</v>
       </c>
       <c r="F18">
-        <v>7.565</v>
+        <v>7.5650000000000004</v>
       </c>
       <c r="G18">
-        <v>158.0590027</v>
+        <v>158.05900270000001</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4783,10 +4801,10 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>158.0590027</v>
+        <v>158.05900270000001</v>
       </c>
       <c r="K18">
-        <v>158.0590027</v>
+        <v>158.05900270000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -4795,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4815,7 +4833,7 @@
         <v>1.903</v>
       </c>
       <c r="G19">
-        <v>16.06356519</v>
+        <v>16.063565189999998</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4836,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4877,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4894,10 +4912,10 @@
         <v>114</v>
       </c>
       <c r="F21">
-        <v>5.235</v>
+        <v>5.2350000000000003</v>
       </c>
       <c r="G21">
-        <v>313.349542</v>
+        <v>313.34954199999999</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -4906,10 +4924,10 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>313.349542</v>
+        <v>313.34954199999999</v>
       </c>
       <c r="K21">
-        <v>313.349542</v>
+        <v>313.34954199999999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4918,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4947,19 +4965,19 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>324.4084</v>
+        <v>324.40839999999997</v>
       </c>
       <c r="K22">
         <v>395.62</v>
       </c>
       <c r="L22">
-        <v>71.21160000000003</v>
+        <v>71.211600000000033</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4976,7 +4994,7 @@
         <v>114</v>
       </c>
       <c r="F23">
-        <v>3.071</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="G23">
         <v>57.25</v>
@@ -5000,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5035,13 +5053,13 @@
         <v>242.75</v>
       </c>
       <c r="L24">
-        <v>97.09999999999999</v>
+        <v>97.1</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5070,19 +5088,19 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>243.831</v>
+        <v>243.83099999999999</v>
       </c>
       <c r="K25">
         <v>286.86</v>
       </c>
       <c r="L25">
-        <v>43.029</v>
+        <v>43.029000000000003</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5117,13 +5135,13 @@
         <v>182.66</v>
       </c>
       <c r="L26">
-        <v>27.399</v>
+        <v>27.399000000000001</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5152,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>251.796</v>
+        <v>251.79599999999999</v>
       </c>
       <c r="K27">
         <v>419.66</v>
@@ -5164,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5190,22 +5208,22 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J28">
         <v>224.4495987</v>
       </c>
       <c r="K28">
-        <v>246.89455857</v>
+        <v>246.89455856999999</v>
       </c>
       <c r="L28">
-        <v>22.44495987000002</v>
+        <v>22.444959870000019</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5222,7 +5240,7 @@
         <v>114</v>
       </c>
       <c r="F29">
-        <v>1.933</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="G29">
         <v>118.7745324</v>
@@ -5246,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5266,7 +5284,7 @@
         <v>2.31</v>
       </c>
       <c r="G30">
-        <v>88.15154926</v>
+        <v>88.151549259999996</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -5275,10 +5293,10 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>88.15154926</v>
+        <v>88.151549259999996</v>
       </c>
       <c r="K30">
-        <v>88.15154926</v>
+        <v>88.151549259999996</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5287,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5304,10 +5322,10 @@
         <v>114</v>
       </c>
       <c r="F31">
-        <v>1.178</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="G31">
-        <v>51.05747425</v>
+        <v>51.057474249999999</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5316,10 +5334,10 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>51.05747425</v>
+        <v>51.057474249999999</v>
       </c>
       <c r="K31">
-        <v>51.05747425</v>
+        <v>51.057474249999999</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5328,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5348,7 +5366,7 @@
         <v>0.35</v>
       </c>
       <c r="G32">
-        <v>28.03759306</v>
+        <v>28.037593059999999</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -5369,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5410,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5451,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5471,7 +5489,7 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>16.92</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -5492,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5533,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5553,7 +5571,7 @@
         <v>15</v>
       </c>
       <c r="G37">
-        <v>654.8026328</v>
+        <v>654.80263279999997</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -5562,10 +5580,10 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>654.8026328</v>
+        <v>654.80263279999997</v>
       </c>
       <c r="K37">
-        <v>654.8026328</v>
+        <v>654.80263279999997</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5574,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>9</v>
       </c>
       <c r="G38">
-        <v>238.874137</v>
+        <v>238.87413699999999</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -5603,19 +5621,19 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>238.874137</v>
+        <v>238.87413699999999</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>-238.874137</v>
+        <v>-238.87413699999999</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5644,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>173.844</v>
+        <v>173.84399999999999</v>
       </c>
       <c r="K39">
         <v>289.74</v>
@@ -5656,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5697,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5738,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5779,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5820,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5861,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5902,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5943,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5984,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6031,14 +6049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>138</v>
       </c>
@@ -6055,7 +6073,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6075,7 +6093,7 @@
         <v>-51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6095,7 +6113,7 @@
         <v>-347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6109,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>625.9299999999999</v>
+        <v>625.92999999999995</v>
       </c>
       <c r="F4">
-        <v>-625.9299999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-625.92999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6129,13 +6147,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>714.6900000000001</v>
+        <v>714.69</v>
       </c>
       <c r="F5">
-        <v>-714.6900000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-714.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6155,7 +6173,7 @@
         <v>-575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6175,7 +6193,7 @@
         <v>-837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6189,13 +6207,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>565.0700000000001</v>
+        <v>565.07000000000005</v>
       </c>
       <c r="F8">
-        <v>-565.0700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-565.07000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6215,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6235,7 +6253,7 @@
         <v>-712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6255,7 +6273,7 @@
         <v>-409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6275,7 +6293,7 @@
         <v>-522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6295,7 +6313,7 @@
         <v>-705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6309,13 +6327,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>647.2</v>
+        <v>647.20000000000005</v>
       </c>
       <c r="F14">
-        <v>-647.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-647.20000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6335,7 +6353,7 @@
         <v>-806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6355,7 +6373,7 @@
         <v>-333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6375,7 +6393,7 @@
         <v>-721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6395,7 +6413,7 @@
         <v>-1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6415,7 +6433,7 @@
         <v>-711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6435,7 +6453,7 @@
         <v>-331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6455,7 +6473,7 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6475,7 +6493,7 @@
         <v>-268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6495,7 +6513,7 @@
         <v>-281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6515,7 +6533,7 @@
         <v>-720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6535,7 +6553,7 @@
         <v>-890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6555,7 +6573,7 @@
         <v>-749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6575,7 +6593,7 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6595,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6615,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6635,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6655,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6675,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6695,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6715,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6735,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6755,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6775,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6795,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6815,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6823,19 +6841,19 @@
         <v>118</v>
       </c>
       <c r="C40">
-        <v>1143.543037228255</v>
+        <v>1143.5430372282549</v>
       </c>
       <c r="D40">
-        <v>1345.3447496803</v>
+        <v>1345.3447496803001</v>
       </c>
       <c r="E40">
         <v>817.97</v>
       </c>
       <c r="F40">
-        <v>527.3747496803001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>527.37474968030006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6843,19 +6861,19 @@
         <v>119</v>
       </c>
       <c r="C41">
-        <v>653.502576952479</v>
+        <v>653.50257695247899</v>
       </c>
       <c r="D41">
-        <v>910.9639187764791</v>
+        <v>910.96391877647909</v>
       </c>
       <c r="E41">
         <v>475.85</v>
       </c>
       <c r="F41">
-        <v>435.1139187764791</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>435.11391877647912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6863,7 +6881,7 @@
         <v>120</v>
       </c>
       <c r="C42">
-        <v>849.5115</v>
+        <v>849.51149999999996</v>
       </c>
       <c r="D42">
         <v>868.99</v>
@@ -6875,7 +6893,7 @@
         <v>156.26</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6883,19 +6901,19 @@
         <v>121</v>
       </c>
       <c r="C43">
-        <v>1339.875588254</v>
+        <v>1339.8755882539999</v>
       </c>
       <c r="D43">
-        <v>1484.8619276</v>
+        <v>1484.8619275999999</v>
       </c>
       <c r="E43">
         <v>844.17</v>
       </c>
       <c r="F43">
-        <v>640.6919276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>640.69192759999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6903,7 +6921,7 @@
         <v>122</v>
       </c>
       <c r="C44">
-        <v>796.538</v>
+        <v>796.53800000000001</v>
       </c>
       <c r="D44">
         <v>1189.18</v>
@@ -6915,7 +6933,7 @@
         <v>553.84</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6923,19 +6941,19 @@
         <v>123</v>
       </c>
       <c r="C45">
-        <v>586.3631546099999</v>
+        <v>586.36315460999992</v>
       </c>
       <c r="D45">
-        <v>608.80811448</v>
+        <v>608.80811447999997</v>
       </c>
       <c r="E45">
         <v>375.82</v>
       </c>
       <c r="F45">
-        <v>232.98811448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>232.98811448000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6943,19 +6961,19 @@
         <v>124</v>
       </c>
       <c r="C46">
-        <v>893.6767698</v>
+        <v>893.67676979999999</v>
       </c>
       <c r="D46">
-        <v>654.8026328</v>
+        <v>654.80263279999997</v>
       </c>
       <c r="E46">
         <v>567.71</v>
       </c>
       <c r="F46">
-        <v>87.09263279999993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>87.092632799999933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6963,7 +6981,7 @@
         <v>125</v>
       </c>
       <c r="C47">
-        <v>233.814</v>
+        <v>233.81399999999999</v>
       </c>
       <c r="D47">
         <v>877.26</v>
@@ -6981,14 +6999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7011,7 +7029,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7037,7 +7055,7 @@
         <v>-255.27</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7063,7 +7081,7 @@
         <v>389.57</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7077,7 +7095,7 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>1030.352</v>
+        <v>1030.3520000000001</v>
       </c>
       <c r="F4">
         <v>1661.55</v>
@@ -7089,7 +7107,7 @@
         <v>-4842.42</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7115,7 +7133,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7141,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7167,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7181,19 +7199,19 @@
         <v>38</v>
       </c>
       <c r="E8">
-        <v>1376.10992441</v>
+        <v>1376.1099244100001</v>
       </c>
       <c r="F8">
-        <v>1159.68074728</v>
+        <v>1159.6807472800001</v>
       </c>
       <c r="G8">
         <v>2546.54</v>
       </c>
       <c r="H8">
-        <v>-1386.85925272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-1386.8592527200001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7216,10 +7234,10 @@
         <v>51.09</v>
       </c>
       <c r="H9">
-        <v>1949.115846376479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1949.1158463764791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7233,19 +7251,19 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>1593.753037228255</v>
+        <v>1593.7530372282549</v>
       </c>
       <c r="F10">
-        <v>1795.5547496803</v>
+        <v>1795.5547496802999</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1795.5547496803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1795.5547496802999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7259,7 +7277,7 @@
         <v>41</v>
       </c>
       <c r="E11">
-        <v>353.6184</v>
+        <v>353.61840000000001</v>
       </c>
       <c r="F11">
         <v>482.08</v>
@@ -7271,7 +7289,7 @@
         <v>482.08</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7297,7 +7315,7 @@
         <v>-5833.04</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7323,7 +7341,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7349,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7375,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7407,14 +7425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="7" width="32.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7431,244 +7457,250 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>36.54</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>36.54</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
-        <v>370.0915</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>370.09</v>
+      </c>
+      <c r="D3" s="2">
         <v>389.57</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>310.37</v>
       </c>
-      <c r="F3">
-        <v>79.19999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="2">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>1114.852</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>1114.8499999999999</v>
+      </c>
+      <c r="D4" s="2">
         <v>2057.15</v>
       </c>
-      <c r="E4">
-        <v>814.5700000000001</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="2">
+        <v>814.57</v>
+      </c>
+      <c r="F4" s="2">
         <v>1242.58</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5">
-        <v>1376.10992441</v>
-      </c>
-      <c r="D5">
-        <v>1159.68074728</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="2">
+        <v>1376.11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1159.68</v>
+      </c>
+      <c r="E5" s="2">
         <v>886.28</v>
       </c>
-      <c r="F5">
-        <v>273.4007472799999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="2">
+        <v>273.39999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6">
-        <v>1668.969765206479</v>
-      </c>
-      <c r="D6">
-        <v>2000.205846376479</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="2">
+        <v>1668.97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2000.21</v>
+      </c>
+      <c r="E6" s="2">
         <v>1101.76</v>
       </c>
-      <c r="F6">
-        <v>898.4458463764793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="2">
+        <v>898.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7">
-        <v>1593.753037228255</v>
-      </c>
-      <c r="D7">
-        <v>1795.5547496803</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="2">
+        <v>1593.75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1795.55</v>
+      </c>
+      <c r="E7" s="2">
         <v>1438.59</v>
       </c>
-      <c r="F7">
-        <v>356.9647496803002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="2">
+        <v>356.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>353.6184</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>353.62</v>
+      </c>
+      <c r="D8" s="2">
         <v>482.08</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>482.08</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>19.43</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>19.43</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>12.48</v>
       </c>
-      <c r="F10">
-        <v>6.949999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="2">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f>SUM(C2:C13)</f>
+        <v>6496.82</v>
       </c>
     </row>
   </sheetData>
